--- a/data/trans_camb/P24_8_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P24_8_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,87</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-6,47</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-5,99</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>-6,25</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-3,9</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-2,52</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-3,86</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-1,7</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>3,79</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1,61</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 6,65</t>
+          <t>-3,91; 5,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 1,83</t>
+          <t>-5,99; 1,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 4,82</t>
+          <t>-5,17; 3,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 10,29</t>
+          <t>-1,5; 12,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,65; 1,56</t>
+          <t>-8,02; 9,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 0,4</t>
+          <t>-5,94; 11,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 5,23</t>
+          <t>-12,54; 2,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 13,02</t>
+          <t>-13,65; 0,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 2,36</t>
+          <t>-11,29; 4,15</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 0,26</t>
+          <t>-10,16; 5,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 3,24</t>
+          <t>-2,43; 16,67</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 9,89</t>
+          <t>-9,3; 12,07</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-6,93; 2,06</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-7,91; 0,51</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-6,04; 2,85</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-3,51; 7,51</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-2,47; 10,37</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-5,21; 7,89</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,92%</t>
+          <t>11,26%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-41,54%</t>
+          <t>-44,77%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-17,61%</t>
+          <t>-19,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>77,06%</t>
+          <t>92,42%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-34,85%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-38,41%</t>
+          <t>26,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-17,19%</t>
+          <t>-35,53%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>-37,08%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-22,27%</t>
+          <t>-18,8%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-37,58%</t>
+          <t>-13,62%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-14,68%</t>
+          <t>48,06%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>33,51%</t>
+          <t>5,33%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-24,29%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-37,19%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-16,34%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>12,53%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>32,41%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>11,62%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-68,38; 280,9</t>
+          <t>-64,59; 230,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-86,58; 96,99</t>
+          <t>-89,24; 112,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-81,8; 263,09</t>
+          <t>-84,91; 212,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,36; 398,26</t>
+          <t>-37,66; 510,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-64,52; 15,61</t>
+          <t>-61,61; 226,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-65,5; 5,73</t>
+          <t>-52,19; 241,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-52,34; 46,97</t>
+          <t>-62,6; 21,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,17; 98,98</t>
+          <t>-64,45; 8,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-54,11; 28,6</t>
+          <t>-52,17; 32,52</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-61,18; 9,12</t>
+          <t>-49,11; 46,97</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-46,7; 41,19</t>
+          <t>-14,1; 155,93</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 119,09</t>
+          <t>-35,88; 77,87</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-53,58; 28,26</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-62,07; 9,34</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-46,59; 34,76</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-30,95; 90,6</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-17,3; 122,63</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-30,92; 73,93</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,33</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,83</t>
+          <t>-3,91</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,24</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-1,86</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,64</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>2,39</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 5,58</t>
+          <t>-11,88; 6,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 2,21</t>
+          <t>-14,31; 1,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 9,81</t>
+          <t>-9,06; 9,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 8,25</t>
+          <t>-14,7; 3,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 9,35</t>
+          <t>-3,28; 13,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 6,19</t>
+          <t>-8,38; 9,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 7,88</t>
+          <t>-4,93; 8,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 13,63</t>
+          <t>-5,73; 6,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 4,6</t>
+          <t>-4,12; 8,2</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 2,54</t>
+          <t>-1,74; 13,35</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 6,77</t>
+          <t>-7,88; 8,84</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 8,09</t>
+          <t>-9,13; 7,75</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-6,49; 5,78</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-8,31; 2,32</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-4,23; 7,76</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-6,07; 5,99</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-3,29; 9,07</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-5,97; 7,05</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-25,4%</t>
+          <t>-19,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-41,73%</t>
+          <t>-42,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>-37,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>60,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>-0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>51,58%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-4,65%</t>
+          <t>17,76%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-16,95%</t>
+          <t>47,5%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>29,65%</t>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-3,1%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-17,54%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>15,5%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>7,67%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>21,01%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0,55%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-80,92; 148,18</t>
+          <t>-77,51; 155,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-84,73; 53,83</t>
+          <t>-82,95; 47,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-66,52; 195,67</t>
+          <t>-64,25; 217,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-70,77; 177,13</t>
+          <t>-86,21; 66,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-37,06; 99,16</t>
+          <t>-44,95; 428,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,35; 68,94</t>
+          <t>-70,01; 186,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,73; 83,5</t>
+          <t>-34,68; 86,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 139,81</t>
+          <t>-39,24; 74,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-49,43; 60,92</t>
+          <t>-28,38; 92,31</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-54,65; 31,39</t>
+          <t>-13,79; 138,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-34,78; 82,45</t>
+          <t>-35,55; 64,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-28,0; 102,58</t>
+          <t>-39,83; 54,94</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-46,45; 71,75</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-53,92; 30,52</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-31,43; 97,71</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-41,32; 75,1</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-25,33; 103,01</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-35,68; 67,19</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,11</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,42</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,18</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,55</t>
+          <t>-3,98</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-3,6</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>5,62</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>6,67</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-1,88</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-3,47</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-2,28</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-1,85</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>3,87</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>2,09</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 3,17</t>
+          <t>-7,12; 3,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 0,61</t>
+          <t>-9,44; 0,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 2,94</t>
+          <t>-7,13; 2,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 8,72</t>
+          <t>-6,88; 3,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 1,84</t>
+          <t>-2,08; 7,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 0,67</t>
+          <t>-7,49; 3,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 1,76</t>
+          <t>-8,26; 2,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 2,06</t>
+          <t>-8,57; 1,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 1,12</t>
+          <t>-9,16; 1,26</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-7,32; -0,4</t>
+          <t>-7,64; 3,01</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 0,99</t>
+          <t>0,16; 12,47</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 3,98</t>
+          <t>0,32; 12,99</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-6,24; 1,32</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-7,02; -0,31</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-5,76; 0,87</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-5,27; 1,85</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>-0,11; 8,48</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>-2,22; 6,34</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-20,06%</t>
+          <t>-12,03%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-46,87%</t>
+          <t>-46,01%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-16,14%</t>
+          <t>-18,22%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>54,09%</t>
+          <t>-19,24%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-22,91%</t>
+          <t>52,56%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-28,04%</t>
+          <t>-20,02%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-22,87%</t>
+          <t>-19,89%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-23,82%</t>
+          <t>-26,72%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-22,31%</t>
+          <t>-22,76%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-33,29%</t>
+          <t>-16,81%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-20,51%</t>
+          <t>45,29%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>-0,65%</t>
+          <t>58,69%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-17,37%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-32,06%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-21,09%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-17,08%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>43,1%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>19,47%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1790,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-67,97; 77,71</t>
+          <t>-65,8; 69,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-80,12; 23,52</t>
+          <t>-80,4; 11,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-68,16; 70,91</t>
+          <t>-65,46; 74,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,78; 191,81</t>
+          <t>-66,83; 89,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,1; 15,18</t>
+          <t>-32,59; 241,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-52,77; 6,84</t>
+          <t>-59,74; 49,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-48,99; 14,57</t>
+          <t>-47,5; 19,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-50,47; 20,35</t>
+          <t>-49,58; 10,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-48,84; 11,98</t>
+          <t>-49,13; 10,5</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-55,23; -4,04</t>
+          <t>-42,41; 29,24</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-46,24; 11,9</t>
+          <t>-2,25; 121,19</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-30,73; 43,12</t>
+          <t>0,06; 147,03</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-46,24; 15,16</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-53,77; -2,52</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-43,46; 11,72</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-42,28; 19,72</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>-4,11; 114,64</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>-18,1; 72,39</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,43</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>-1,8</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,97</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>5,12</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>1,47</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 2,66</t>
+          <t>-4,09; 2,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 3,49</t>
+          <t>-3,03; 3,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 4,44</t>
+          <t>-2,68; 4,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 9,91</t>
+          <t>-5,38; 1,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 3,65</t>
+          <t>5,68; 17,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 5,77</t>
+          <t>-2,25; 11,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 6,57</t>
+          <t>-6,43; 3,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 10,24</t>
+          <t>-4,48; 5,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 1,76</t>
+          <t>-3,02; 7,31</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 3,77</t>
+          <t>-3,02; 8,3</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 4,19</t>
+          <t>-6,62; 6,02</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,26</t>
+          <t>-8,33; 5,28</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-3,93; 2,43</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-2,35; 3,73</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-1,93; 4,35</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-2,57; 4,3</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 9,47</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-3,39; 5,88</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-21,1%</t>
+          <t>-19,02%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>100,51%</t>
+          <t>-34,49%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-10,24%</t>
+          <t>344,26%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>45,14%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>-6,86%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>35,53%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-13,52%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>25,76%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>-3,7%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>48,34%</t>
+          <t>-10,65%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-10,94%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>6,77%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>14,66%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>6,96%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>54,19%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>11,18%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +2186,92 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-67,41; 84,33</t>
+          <t>-64,09; 91,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-48,7; 103,97</t>
+          <t>-47,87; 131,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-39,18; 143,74</t>
+          <t>-41,79; 155,23</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,53; 331,14</t>
+          <t>-78,62; 52,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-43,49; 36,45</t>
+          <t>108,91; 1000,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,91; 55,99</t>
+          <t>-20,16; 165,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-19,51; 62,71</t>
+          <t>-42,32; 38,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 100,64</t>
+          <t>-28,46; 52,59</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-40,48; 24,24</t>
+          <t>-20,62; 69,52</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-24,27; 50,98</t>
+          <t>-20,68; 84,55</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-20,33; 55,83</t>
+          <t>-35,76; 48,65</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>6,61; 109,45</t>
+          <t>-41,19; 41,12</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-38,19; 34,66</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-23,34; 52,09</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-18,58; 60,47</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-24,53; 60,95</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>9,12; 121,34</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-22,94; 51,02</t>
         </is>
       </c>
     </row>
@@ -1760,7 +2288,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -1770,52 +2298,82 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>10,6</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>7,47</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>8,71</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>9,84</t>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>1,57</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>4,35</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>6,93</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>1,43</t>
         </is>
       </c>
     </row>
@@ -1828,62 +2386,92 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 2,11</t>
+          <t>-3,0; 2,29</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,7; 8,07</t>
+          <t>0,35; 7,98</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 10,8</t>
+          <t>0,02; 10,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,66; 17,46</t>
+          <t>1,47; 11,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 6,55</t>
+          <t>0,73; 13,56</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 5,59</t>
+          <t>-5,31; 9,33</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 4,33</t>
+          <t>-5,59; 6,71</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,3; 15,34</t>
+          <t>-5,04; 6,1</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 3,88</t>
+          <t>-6,44; 4,35</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 6,34</t>
+          <t>-3,49; 9,95</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 5,59</t>
+          <t>-1,68; 14,43</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>5,48; 14,15</t>
+          <t>-6,72; 8,76</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-3,26; 3,45</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-1,3; 5,65</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-1,9; 6,29</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 8,27</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 11,73</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>-3,9; 7,05</t>
         </is>
       </c>
     </row>
@@ -1896,62 +2484,92 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-20,2%</t>
+          <t>-17,43%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>156,12%</t>
+          <t>156,11%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>145,24%</t>
+          <t>144,59%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>393,13%</t>
+          <t>203,06%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>91,35%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>17,64%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-7,98%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>76,56%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-0,28%</t>
+          <t>-8,16%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>31,9%</t>
+          <t>26,21%</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>44,99%</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>140,72%</t>
+          <t>3,63%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>1,39%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>32,81%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>22,41%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>62,15%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>61,06%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>8,49%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +2582,92 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-85,58; 195,31</t>
+          <t>-78,28; 182,62</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>5,6; 544,0</t>
+          <t>-0,37; 596,12</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 832,71</t>
+          <t>-13,21; 939,96</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>122,39; 1482,9</t>
+          <t>8,97; 789,86</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-44,13; 76,77</t>
+          <t>4,65; 258,38</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-41,68; 63,52</t>
+          <t>-32,06; 96,07</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-46,8; 54,12</t>
+          <t>-39,66; 79,64</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>12,57; 176,25</t>
+          <t>-36,29; 77,2</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-40,45; 70,93</t>
+          <t>-46,28; 50,63</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>-12,96; 121,2</t>
+          <t>-28,17; 111,04</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>-24,34; 101,29</t>
+          <t>-9,66; 136,94</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>62,02; 254,72</t>
+          <t>-29,99; 52,35</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-39,95; 61,32</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-14,43; 102,44</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-24,29; 114,75</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-1,98; 148,44</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>10,25; 126,75</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>-20,39; 48,59</t>
         </is>
       </c>
     </row>
@@ -2036,62 +2684,92 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>5,95</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>9,6</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>11,94</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-0,58</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>2,19</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>4,87</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>6,33</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>8,61</t>
         </is>
       </c>
     </row>
@@ -2104,62 +2782,92 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 2,15</t>
+          <t>-2,78; 2,61</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 3,58</t>
+          <t>-2,35; 3,63</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 4,0</t>
+          <t>-2,22; 3,84</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 4,94</t>
+          <t>-0,07; 9,55</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 2,88</t>
+          <t>-4,94; 8,18</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 3,4</t>
+          <t>-0,91; 9,64</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 8,14</t>
+          <t>-5,3; 3,47</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 11,34</t>
+          <t>-5,46; 4,18</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 1,66</t>
+          <t>-1,06; 8,91</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 2,1</t>
+          <t>0,06; 12,63</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 5,08</t>
+          <t>0,41; 18,29</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 7,27</t>
+          <t>2,57; 20,39</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 2,25</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-3,22; 2,83</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-1,13; 5,54</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>0,75; 9,61</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>-0,12; 12,11</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>2,6; 14,74</t>
         </is>
       </c>
     </row>
@@ -2172,62 +2880,92 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-17,8%</t>
+          <t>-6,53%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>23,9%</t>
+          <t>33,14%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>62,37%</t>
+          <t>193,91%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-19,24%</t>
+          <t>29,93%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-19,76%</t>
+          <t>135,32%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>38,01%</t>
+          <t>-11,55%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>45,47%</t>
+          <t>-12,09%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-19,23%</t>
+          <t>45,62%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>-13,38%</t>
+          <t>74,75%</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>35,83%</t>
+          <t>69,1%</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>48,65%</t>
+          <t>103,26%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-10,91%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-5,57%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>41,08%</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>91,19%</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>62,01%</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>108,5%</t>
         </is>
       </c>
     </row>
@@ -2240,12 +2978,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 388,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-81,6; 685,78</t>
+          <t>-84,57; 556,51</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -2255,47 +2993,77 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-74,53; 883,92</t>
+          <t>-36,31; 1284,77</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-58,55; 55,43</t>
+          <t>-57,56; 380,82</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-57,77; 60,12</t>
+          <t>-39,42; 817,96</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-22,02; 128,84</t>
+          <t>-54,38; 60,38</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-21,89; 211,72</t>
+          <t>-55,76; 79,33</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-54,58; 50,75</t>
+          <t>-12,55; 148,5</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>-53,41; 54,7</t>
+          <t>-0,73; 203,55</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>-17,69; 121,44</t>
+          <t>-0,16; 176,51</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>-22,53; 166,52</t>
+          <t>5,66; 254,31</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-52,55; 54,57</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-49,14; 70,56</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-16,6; 135,52</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>8,86; 218,18</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>-2,48; 155,51</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>20,33; 280,64</t>
         </is>
       </c>
     </row>
@@ -2312,7 +3080,7 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
@@ -2322,52 +3090,82 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>3,62</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-1,02</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-1,1</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>1,56</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>2,68</t>
         </is>
       </c>
     </row>
@@ -2380,62 +3178,92 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 1,14</t>
+          <t>-2,82; 1,38</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 0,89</t>
+          <t>-2,72; 1,13</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 3,05</t>
+          <t>-1,51; 3,1</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,27; 6,46</t>
+          <t>-1,5; 3,1</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 0,66</t>
+          <t>2,04; 7,6</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 0,83</t>
+          <t>-0,97; 4,9</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 2,13</t>
+          <t>-3,73; 1,06</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,82; 6,16</t>
+          <t>-3,87; 0,78</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 0,2</t>
+          <t>-2,05; 2,57</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 0,27</t>
+          <t>-0,4; 4,93</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 2,0</t>
+          <t>1,84; 8,31</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>1,8; 5,51</t>
+          <t>0,02; 7,12</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-2,85; 0,64</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-2,66; 0,29</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 2,18</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>-0,24; 3,48</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>2,74; 6,69</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>0,41; 4,92</t>
         </is>
       </c>
     </row>
@@ -2448,62 +3276,92 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-16,15%</t>
+          <t>-12,06%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-14,67%</t>
+          <t>-14,63%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>77,72%</t>
+          <t>16,16%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-13,64%</t>
+          <t>82,07%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-13,15%</t>
+          <t>19,06%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>-11,39%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>28,96%</t>
+          <t>-11,61%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-14,34%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>-13,55%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>33,85%</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>41,82%</t>
+          <t>22,69%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-11,57%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>-12,44%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>5,19%</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>17,7%</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>46,29%</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>21,43%</t>
         </is>
       </c>
     </row>
@@ -2516,78 +3374,115 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-49,48; 30,77</t>
+          <t>-45,72; 34,91</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-47,43; 22,89</t>
+          <t>-42,98; 30,92</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-30,19; 70,94</t>
+          <t>-25,03; 77,85</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>17,03; 158,98</t>
+          <t>-24,42; 79,12</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-30,72; 5,68</t>
+          <t>27,99; 155,32</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-29,85; 7,58</t>
+          <t>-9,72; 62,46</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-16,64; 18,61</t>
+          <t>-27,4; 9,7</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>6,44; 55,44</t>
+          <t>-28,13; 6,84</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-30,63; 2,32</t>
+          <t>-15,0; 23,05</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>-29,02; 3,78</t>
+          <t>-3,14; 43,05</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 24,48</t>
+          <t>11,68; 62,42</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>17,65; 68,83</t>
+          <t>-0,04; 49,44</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-28,69; 8,07</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-26,73; 4,03</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-12,83; 27,51</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>-3,07; 42,67</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>23,6; 70,09</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>2,78; 42,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
